--- a/biology/Médecine/Giovanni_Andrea_Della_Croce/Giovanni_Andrea_Della_Croce.xlsx
+++ b/biology/Médecine/Giovanni_Andrea_Della_Croce/Giovanni_Andrea_Della_Croce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Andrea Della Croce (ou de Cruce Crucejus) (né en 1509 (ou 1515) à Venise et mort dans la même ville en 1575 est un chirurgien vénitien du XVIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Matteo Giuseppe Della Croce et de mère vénitienne, petit-fils du chirurgien Giovanni Antonio Grandi Della Croce, au service du duc de Milan.
 Après sa jeunesse à Venise, il se consacra à l'étude des médecins classiques et devint en 1532 membre du Collège chirurgical de Venise, parmi d'autres célébrités de son temps comme Girolamo Fabrizi d'Acquapendente, Gabriele Falloppio, E. Saxe, S. Santorio.
@@ -560,7 +574,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De morbo gallico, G.A. Della Croce, Venetiis 1532.
 Chirurgiae universalis opus absolutum, G.A. Della Croce, Venetiis, 1573, 1587, 1596, traduit comme:
